--- a/DPB.xlsx
+++ b/DPB.xlsx
@@ -209,6 +209,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -231,6 +232,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -239,6 +241,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -246,12 +249,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -259,6 +264,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -328,11 +334,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,7 +371,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,8 +379,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -395,12 +409,18 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <color rgb="FF000000"/>
         <sz val="11"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCCCCC"/>
@@ -408,10 +428,10 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
         <diagonal/>
       </border>
     </dxf>
@@ -487,11 +507,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.92"/>
@@ -552,11 +572,11 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
@@ -678,14 +698,14 @@
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="true" ht="60.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="11" customFormat="true" ht="60.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -786,72 +806,72 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="61.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
@@ -926,17 +946,17 @@
   </sheetPr>
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -961,7 +981,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>53</v>
       </c>
     </row>

--- a/DPB.xlsx
+++ b/DPB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t xml:space="preserve">PROJECT NAME</t>
   </si>
@@ -33,6 +33,9 @@
     <t xml:space="preserve">PROJECT MANAGER</t>
   </si>
   <si>
+    <t xml:space="preserve">Αναστάσιος Λιόντος</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
@@ -72,7 +75,7 @@
     <t xml:space="preserve">Προγραμματιστής</t>
   </si>
   <si>
-    <t xml:space="preserve">Να μπορώ να επιλέξω κατηγορία μοτιβών.</t>
+    <t xml:space="preserve">Να μπορώ να επιλέξω κατηγορία μοτίβων.</t>
   </si>
   <si>
     <t xml:space="preserve">Έτσι ώστε να εισάγω αυτόματα στον κώδικά μου το σκελετό ενός μοτίβου της κατηγορίας αυτής.</t>
@@ -81,88 +84,64 @@
     <t xml:space="preserve">Open</t>
   </si>
   <si>
-    <t xml:space="preserve">US2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορώ να επιλέγω ένα μοτίβο μιας κατηγορίας.</t>
   </si>
   <si>
     <t xml:space="preserve">Έτσι ώστε να  εισάγω αυτόματα στον κώδικά μου το σκελετό του μοτίβου αυτού.</t>
   </si>
   <si>
-    <t xml:space="preserve">US3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορώ να καθορίσω τα ονόματα των κλάσεων που θα δημιουργηθούν αυτόματα.</t>
   </si>
   <si>
+    <t xml:space="preserve">Έτσι ώστε να προσαρμοσω τις κλάσεις αυτές στον κώδικά μου και στις ανάγκες του μοτίβου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Να μπορώ να επιλέξω ήδη υπάρχουσες κλάσεις που υπάρχουν στον κώδικα μου. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Έτσι ώστε να παίξουν κάποιο ρόλο στο μοτίβο.</t>
   </si>
   <si>
-    <t xml:space="preserve">US4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Να μπορώ να επιλέξω ήδη υπάρχουσες κλάσεις που υπάρχουν στον κώδικα μου. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Να μπορώ να καθορίσω πεδία των κλάσεων που θα δημιουργηθούν αυτόματα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Έτσι ώστε να  παίξουν κάποιο ρόλο στο μοτίβο. τις προσαρμοσω στον κώδικά μου και στις ανάγκες του μοτίβου.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Να μπορώ να καθορίσω μεθοδους των κλάσεων που θα δημιουργηθούν αυτόματα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορώ να καθορίσω πεδία που θα προστεθούν στις νέες κλάσεις. </t>
   </si>
   <si>
-    <t xml:space="preserve">Έτσι ώστε να προσαρμοσω τις κλάσεις αυτές στον κώδικά μου και στις ανάγκες του μοτίβου.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορώ να καθορίσω μεθόδους που θα προστεθούν στις νέες κλάσεις.</t>
   </si>
   <si>
     <t xml:space="preserve">Έτσι ώστε να προσαρμοσω τις μεθόδους αυτές στον κώδικά μου και στις ανάγκες του μοτίβου.</t>
   </si>
   <si>
-    <t xml:space="preserve">US9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορώ να καθορίσω πεδία που υπάρχουν ήδη στις υπάρχουσες κλάσεις.</t>
   </si>
   <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορώ να καθορίσω μεθόδους που υπάρχουν ήδη στις υπάρχουσες κλάσεις.</t>
   </si>
   <si>
     <t xml:space="preserve">Έτσι ώστε να προσαρμόσω τις κλάσεις αυτές στον κώδικά μου και στις ανάγκες του μοτίβου.</t>
   </si>
   <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορώ να δημιουργήσω αυτόματα τον κώδικα του μοτίβου με βάση τις όποιες παραμετροποιήσεις έχουν γίνει.</t>
   </si>
   <si>
     <t xml:space="preserve">Έτσι ώστε να εισάγω αυτόματα στον κώδικά μου το σκελετό του μοτίβου.</t>
   </si>
   <si>
-    <t xml:space="preserve">US12</t>
+    <t xml:space="preserve">Να μπορώ να καθορίσω τα ονόματα των διεπαφών που θα δημιουργηθούν αυτόματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Έτσι ώστε να προσαρμοσω τις διεπαφές αυτές στον κώδικά μου και στις ανάγκες του μοτίβου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Να μπορώ να επιλέξω ήδη υπάρχουσες διεπαφές που υπάρχουν στον κώδικα μου. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Να μπορώ να καθορίσω μεθόδους που θα προστεθούν στις νέες διεπαφές.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Να μπορώ να καθορίσω μεθόδους που υπάρχουν ήδη στις υπάρχουσες διεπαφές.</t>
   </si>
   <si>
     <t xml:space="preserve">Να μπορώ να ακυρώσω την διαδικασία.</t>
@@ -172,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">MoSCoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should have</t>
   </si>
   <si>
     <t xml:space="preserve">Could have</t>
@@ -199,11 +175,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,13 +224,6 @@
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -338,7 +308,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,19 +349,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,7 +392,6 @@
           <bgColor rgb="FFCCCCCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
         <left style="thin"/>
         <right style="thin"/>
@@ -507,11 +472,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.92"/>
@@ -531,11 +496,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>44813</v>
@@ -543,10 +510,10 @@
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -570,26 +537,26 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="99.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="83.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -607,53 +574,54 @@
     </row>
     <row r="3" s="7" customFormat="true" ht="20.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A4,FIND("S",A4,1)+1,2)+1)</f>
+        <v>US2</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>20</v>
@@ -662,269 +630,286 @@
         <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="45.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A5,FIND("S",A5,1)+1,2)+1)</f>
+        <v>US3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A6,FIND("S",A6,1)+1,2)+1)</f>
+        <v>US4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="51.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A7,FIND("S",A7,1)+1,2)+1)</f>
+        <v>US5</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A8,FIND("S",A8,1)+1,2)+1)</f>
+        <v>US6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A9,FIND("S",A9,1)+1,2)+1)</f>
+        <v>US7</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A10,FIND("S",A10,1)+1,2)+1)</f>
+        <v>US8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="61.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A11,FIND("S",A11,1)+1,2)+1)</f>
+        <v>US9</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A12,FIND("S",A12,1)+1,2)+1)</f>
+        <v>US10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A13,FIND("S",A13,1)+1,2)+1)</f>
+        <v>US11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F14" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A14,FIND("S",A14,1)+1,2)+1)</f>
+        <v>US12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A15,FIND("S",A15,1)+1,2)+1)</f>
+        <v>US13</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="60.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="str">
+        <f aca="false">_xlfn.CONCAT("US",MID(A16,FIND("S",A16,1)+1,2)+1)</f>
+        <v>US14</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="true" ht="54.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="51.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="61.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
+      <c r="F17" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:F20">
+  <conditionalFormatting sqref="A4:F17">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B20" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B17" type="list">
       <formula1>DROPDOWNS!$B$3:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F20" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F17" type="list">
       <formula1>DROPDOWNS!$B$9:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -946,63 +931,63 @@
   </sheetPr>
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="13" t="s">
-        <v>49</v>
+      <c r="B2" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
-        <v>53</v>
+      <c r="B8" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
